--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2544.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2544.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.331308704087911</v>
+        <v>1.702409863471985</v>
       </c>
       <c r="B1">
-        <v>2.307447111007375</v>
+        <v>2.216505289077759</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.246217250823975</v>
       </c>
       <c r="D1">
-        <v>1.322384234374724</v>
+        <v>7.308047771453857</v>
       </c>
       <c r="E1">
-        <v>1.048455818494479</v>
+        <v>0.7607421278953552</v>
       </c>
     </row>
   </sheetData>
